--- a/aichan/548641712259773173_2021-07-18_11-30-03.xlsx
+++ b/aichan/548641712259773173_2021-07-18_11-30-03.xlsx
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -698,11 +698,11 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -899,11 +899,11 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2334,7 +2334,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -3060,7 +3060,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -3212,7 +3212,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4074,7 +4074,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6831,7 +6831,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -9465,7 +9465,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -9536,7 +9536,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -10703,7 +10703,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -10780,7 +10780,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -11009,7 +11009,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -11235,7 +11235,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -11302,7 +11302,7 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -11381,7 +11381,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -12198,7 +12198,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -12269,7 +12269,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -12573,7 +12573,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -12946,7 +12946,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -13231,7 +13231,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -13306,7 +13306,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -13377,7 +13377,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -13452,7 +13452,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -14320,7 +14320,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -14831,7 +14831,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -15052,7 +15052,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -15115,7 +15115,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -15178,7 +15178,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -15466,7 +15466,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -15892,7 +15892,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -16050,7 +16050,7 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -16126,7 +16126,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -16268,7 +16268,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -16620,7 +16620,7 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -16699,7 +16699,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -17133,7 +17133,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -17275,7 +17275,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -17568,7 +17568,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -17785,7 +17785,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -18310,7 +18310,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -18448,7 +18448,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -19616,7 +19616,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -19687,7 +19687,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -19754,7 +19754,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -20209,7 +20209,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -20276,7 +20276,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -20631,7 +20631,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -20840,7 +20840,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -20986,7 +20986,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -21061,7 +21061,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -21203,7 +21203,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -21400,7 +21400,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -21538,7 +21538,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -23824,7 +23824,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -24481,7 +24481,7 @@
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -26222,7 +26222,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -26452,7 +26452,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -26740,7 +26740,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -26882,7 +26882,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -26953,7 +26953,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -27525,7 +27525,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -28113,7 +28113,7 @@
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -28725,7 +28725,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -28804,7 +28804,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -29096,11 +29096,11 @@
         </is>
       </c>
       <c r="I391" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -29615,11 +29615,11 @@
         </is>
       </c>
       <c r="I398" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -30045,7 +30045,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -30116,7 +30116,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -30187,7 +30187,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -30333,11 +30333,11 @@
         </is>
       </c>
       <c r="I408" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -30550,7 +30550,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -32999,7 +32999,7 @@
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -33710,7 +33710,7 @@
         </is>
       </c>
       <c r="I455" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J455" t="inlineStr">
         <is>
@@ -34098,7 +34098,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -34607,7 +34607,7 @@
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -35327,7 +35327,7 @@
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -38810,7 +38810,7 @@
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K524" t="inlineStr">
@@ -38960,7 +38960,7 @@
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">
@@ -39259,7 +39259,7 @@
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K530" t="inlineStr">
@@ -39464,7 +39464,7 @@
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K533" t="inlineStr">
@@ -40122,7 +40122,7 @@
         </is>
       </c>
       <c r="I542" t="n">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="J542" t="inlineStr">
         <is>
@@ -41821,7 +41821,7 @@
         </is>
       </c>
       <c r="I565" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J565" t="inlineStr">
         <is>
@@ -43223,7 +43223,7 @@
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K584" t="inlineStr">
@@ -43645,11 +43645,11 @@
         </is>
       </c>
       <c r="I590" t="n">
-        <v>1666</v>
+        <v>1673</v>
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K590" t="inlineStr">
@@ -43716,7 +43716,7 @@
         </is>
       </c>
       <c r="I591" t="n">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="J591" t="inlineStr">
         <is>
@@ -43859,7 +43859,7 @@
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K593" t="inlineStr">

--- a/aichan/548641712259773173_2021-07-18_11-30-03.xlsx
+++ b/aichan/548641712259773173_2021-07-18_11-30-03.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4976489135</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-23 23:36:15</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44400.98350694445</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -618,10 +632,8 @@
           <t>4962088948</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-21 23:40:38</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44398.98655092593</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -685,10 +697,8 @@
           <t>4958963013</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-21 16:29:39</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44398.68725694445</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -756,10 +766,8 @@
           <t>4958272714</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-21 14:21:16</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44398.59810185185</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -823,10 +831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-21 13:02:05</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44398.54311342593</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -894,10 +900,8 @@
           <t>4955200210</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-21 00:27:21</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44398.01899305556</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -969,10 +973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-19 11:29:38</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44396.47891203704</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1055,10 +1057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-19 10:30:47</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44396.43804398148</v>
       </c>
       <c r="I9" t="n">
         <v>6</v>
@@ -1122,10 +1122,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-19 10:17:41</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44396.42894675926</v>
       </c>
       <c r="I10" t="n">
         <v>3</v>
@@ -1189,10 +1187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:42:15</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44396.02934027778</v>
       </c>
       <c r="I11" t="n">
         <v>3</v>
@@ -1256,10 +1252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:31:29</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44396.02186342593</v>
       </c>
       <c r="I12" t="n">
         <v>3</v>
@@ -1323,10 +1317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:15:58</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44396.01108796296</v>
       </c>
       <c r="I13" t="n">
         <v>3</v>
@@ -1391,10 +1383,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:13:50</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44396.00960648148</v>
       </c>
       <c r="I14" t="n">
         <v>2</v>
@@ -1458,10 +1448,8 @@
           <t>4936439322</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:07:26</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44396.00516203704</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1526,10 +1514,8 @@
           <t>4936439322</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:06:20</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44396.00439814815</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1593,10 +1579,8 @@
           <t>4936439322</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:06:04</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44396.00421296297</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1666,10 +1650,8 @@
           <t>4936439322</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:05:19</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44396.00369212963</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1740,10 +1722,8 @@
           <t>4936439322</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-19 00:04:18</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44396.00298611111</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1807,10 +1787,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-18 23:58:50</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44395.99918981481</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1882,10 +1860,8 @@
           <t>4936439322</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-18 23:56:40</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44395.99768518518</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1955,10 +1931,8 @@
           <t>4935628311</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-18 23:38:58</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44395.98539351852</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2026,10 +2000,8 @@
           <t>4940177410</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-18 23:35:55</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44395.98327546296</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2097,10 +2069,8 @@
           <t>4939282020</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-18 21:43:54</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44395.90548611111</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2164,10 +2134,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-18 19:08:26</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44395.79752314815</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2245,10 +2213,8 @@
           <t>4936439322</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:47:12</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44395.78277777778</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2312,10 +2278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:45:16</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44395.78143518518</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2387,10 +2351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:45:12</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44395.78138888889</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2462,10 +2424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:45:09</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44395.78135416667</v>
       </c>
       <c r="I29" t="n">
         <v>2</v>
@@ -2537,10 +2497,8 @@
           <t>4937926454</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:31:43</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44395.77202546296</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2604,10 +2562,8 @@
           <t>4935353933</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:18:50</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44395.76307870371</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2681,10 +2637,8 @@
           <t>4935972893</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:13:24</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44395.75930555556</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2754,10 +2708,8 @@
           <t>4937789560</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:13:01</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44395.75903935185</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2827,10 +2779,8 @@
           <t>4937756283</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:07:28</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44395.75518518518</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2900,10 +2850,8 @@
           <t>4937729758</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-18 18:04:54</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44395.75340277778</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2971,10 +2919,8 @@
           <t>4937679483</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:57:26</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44395.74821759259</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3034,10 +2980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-18 17:27:23</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44395.72734953704</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3109,10 +3053,8 @@
           <t>4935384815</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:47:22</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44395.69956018519</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -3188,10 +3130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:44:47</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44395.6977662037</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3267,10 +3207,8 @@
           <t>4937188524</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:40:30</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44395.69479166667</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3334,10 +3272,8 @@
           <t>4937096611</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:24:40</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44395.6837962963</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3413,10 +3349,8 @@
           <t>4937081711</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:22:14</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44395.68210648148</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3480,10 +3414,8 @@
           <t>4936980563</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-18 16:03:52</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44395.66935185185</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3559,10 +3491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:53:45</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44395.66232638889</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3632,10 +3562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:15:18</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44395.635625</v>
       </c>
       <c r="I45" t="n">
         <v>24</v>
@@ -3699,10 +3627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:14:03</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44395.63475694445</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -3774,10 +3700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:12:30</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44395.63368055555</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3849,10 +3773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-18 15:01:57</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44395.62635416666</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -3916,10 +3838,8 @@
           <t>4935332058</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:57:25</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44395.62320601852</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -3991,10 +3911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:48:22</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44395.6169212963</v>
       </c>
       <c r="I50" t="n">
         <v>2</v>
@@ -4058,10 +3976,8 @@
           <t>4935743900</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:47:00</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44395.61597222222</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4129,10 +4045,8 @@
           <t>4935332058</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:40:50</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44395.61168981482</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -4204,10 +4118,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:38:37</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44395.61015046296</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -4275,10 +4187,8 @@
           <t>4936488451</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:38:17</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44395.60991898148</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4346,10 +4256,8 @@
           <t>4935628311</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:36:51</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44395.60892361111</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4419,10 +4327,8 @@
           <t>4935332058</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:35:32</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44395.60800925926</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4494,10 +4400,8 @@
           <t>4935332058</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:34:14</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44395.60710648148</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4565,10 +4469,8 @@
           <t>4936446506</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:30:56</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44395.60481481482</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4638,10 +4540,8 @@
           <t>4936439322</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:30:33</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44395.60454861111</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4711,10 +4611,8 @@
           <t>4935332058</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:29:34</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44395.60386574074</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -4786,10 +4684,8 @@
           <t>4936405368</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:23:34</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44395.59969907408</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4865,10 +4761,8 @@
           <t>4935332058</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:14:15</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44395.59322916667</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4940,10 +4834,8 @@
           <t>4936345330</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:13:46</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44395.59289351852</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5015,10 +4907,8 @@
           <t>4935332058</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:11:42</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44395.59145833334</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5086,10 +4976,8 @@
           <t>4935332058</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:08:38</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44395.5893287037</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5157,10 +5045,8 @@
           <t>4935373008</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:07:26</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44395.58849537037</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5220,10 +5106,8 @@
           <t>4936298685</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:05:56</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44395.5874537037</v>
       </c>
       <c r="I67" t="n">
         <v>1</v>
@@ -5295,10 +5179,8 @@
           <t>4935844751</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-18 14:03:05</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44395.58547453704</v>
       </c>
       <c r="I68" t="n">
         <v>2</v>
@@ -5370,10 +5252,8 @@
           <t>4935332058</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:59:08</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44395.58273148148</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5449,10 +5329,8 @@
           <t>4936242912</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:57:29</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44395.58158564815</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5528,10 +5406,8 @@
           <t>4935317572</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:57:23</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44395.5815162037</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5595,10 +5471,8 @@
           <t>4935743900</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:57:22</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44395.58150462963</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -5667,10 +5541,8 @@
           <t>4935332058</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:56:28</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44395.58087962963</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5742,10 +5614,8 @@
           <t>4935332058</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:55:10</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44395.57997685186</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
@@ -5821,10 +5691,8 @@
           <t>4936217635</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:53:05</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44395.57853009259</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5896,10 +5764,8 @@
           <t>4935332058</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:52:39</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44395.57822916667</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5971,10 +5837,8 @@
           <t>4935412085</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:48:29</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44395.57533564815</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6046,10 +5910,8 @@
           <t>4935332058</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:43:41</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44395.57200231482</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6117,10 +5979,8 @@
           <t>4936147089</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:41:13</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44395.57028935185</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6188,10 +6048,8 @@
           <t>4936141157</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:40:37</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44395.56987268518</v>
       </c>
       <c r="I80" t="n">
         <v>3</v>
@@ -6255,10 +6113,8 @@
           <t>4935332058</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:40:09</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44395.56954861111</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6326,10 +6182,8 @@
           <t>4935417600</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:39:32</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44395.56912037037</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6405,10 +6259,8 @@
           <t>4936118082</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:37:02</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44395.56738425926</v>
       </c>
       <c r="I83" t="n">
         <v>2</v>
@@ -6480,10 +6332,8 @@
           <t>4936102218</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:34:23</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44395.56554398148</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
@@ -6559,10 +6409,8 @@
           <t>4935417600</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:33:35</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44395.56498842593</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6638,10 +6486,8 @@
           <t>4935417600</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:33:07</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44395.56466435185</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6717,10 +6563,8 @@
           <t>4936064151</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:28:23</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44395.56137731481</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6789,10 +6633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:26:53</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44395.56033564815</v>
       </c>
       <c r="I88" t="n">
         <v>2</v>
@@ -6868,10 +6710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:26:15</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44395.55989583334</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6947,10 +6787,8 @@
           <t>4935293833</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:25:03</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44395.5590625</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7026,10 +6864,8 @@
           <t>4935332058</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:23:17</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44395.55783564815</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7097,10 +6933,8 @@
           <t>4935293833</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:22:12</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44395.55708333333</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7172,10 +7006,8 @@
           <t>4935332058</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:21:47</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44395.55679398148</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7251,10 +7083,8 @@
           <t>4935743900</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:20:12</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44395.55569444445</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7330,10 +7160,8 @@
           <t>4935355016</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:19:51</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44395.55545138889</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7398,10 +7226,8 @@
           <t>4935955239</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:18:50</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44395.55474537037</v>
       </c>
       <c r="I96" t="n">
         <v>5</v>
@@ -7477,10 +7303,8 @@
           <t>4936002095</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:18:30</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44395.55451388889</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7544,10 +7368,8 @@
           <t>4936000324</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:17:44</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44395.55398148148</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7619,10 +7441,8 @@
           <t>4935384815</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:17:22</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44395.55372685185</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7694,10 +7514,8 @@
           <t>4935388746</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:16:51</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44395.55336805555</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -7773,10 +7591,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:16:48</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44395.55333333334</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7852,10 +7668,8 @@
           <t>4935769464</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:16:37</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44395.55320601852</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -7915,10 +7729,8 @@
           <t>4935352972</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:16:28</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44395.55310185185</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7994,10 +7806,8 @@
           <t>4935384815</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:15:02</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44395.55210648148</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8061,10 +7871,8 @@
           <t>4935332058</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:14:53</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44395.55200231481</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8140,10 +7948,8 @@
           <t>4935976699</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:14:44</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44395.55189814815</v>
       </c>
       <c r="I106" t="n">
         <v>1</v>
@@ -8219,10 +8025,8 @@
           <t>4935973085</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:14:34</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44395.5517824074</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8290,10 +8094,8 @@
           <t>4935972893</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:14:29</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44395.55172453704</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8369,10 +8171,8 @@
           <t>4935643657</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:13:26</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44395.55099537037</v>
       </c>
       <c r="I109" t="n">
         <v>4</v>
@@ -8448,10 +8248,8 @@
           <t>4935958464</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:12:34</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44395.55039351852</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8527,10 +8325,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:12:18</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44395.55020833333</v>
       </c>
       <c r="I111" t="n">
         <v>3</v>
@@ -8598,10 +8394,8 @@
           <t>4935951805</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:11:34</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44395.54969907407</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8677,10 +8471,8 @@
           <t>4935955239</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:11:12</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44395.54944444444</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -8748,10 +8540,8 @@
           <t>4935947543</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:10:27</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44395.54892361111</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8827,10 +8617,8 @@
           <t>4935332058</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:09:36</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44395.54833333333</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8902,10 +8690,8 @@
           <t>4935307636</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:08:57</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44395.54788194445</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8984,10 +8770,8 @@
           <t>4935844751</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:08:08</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44395.54731481482</v>
       </c>
       <c r="I117" t="n">
         <v>3</v>
@@ -9051,10 +8835,8 @@
           <t>4935442012</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:06:02</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44395.54585648148</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9130,10 +8912,8 @@
           <t>4935910209</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:04:44</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44395.54495370371</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9197,10 +8977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:04:05</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44395.54450231481</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9276,10 +9054,8 @@
           <t>4935898739</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:04:05</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44395.54450231481</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -9355,10 +9131,8 @@
           <t>4935892206</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:03:09</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44395.54385416667</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9427,10 +9201,8 @@
           <t>4935332058</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:02:57</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44395.54371527778</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9498,10 +9270,8 @@
           <t>4935879246</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:02:02</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44395.5430787037</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9573,10 +9343,8 @@
           <t>4935884398</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:02:00</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44395.54305555556</v>
       </c>
       <c r="I125" t="n">
         <v>3</v>
@@ -9652,10 +9420,8 @@
           <t>4935877465</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:01:13</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44395.54251157407</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9731,10 +9497,8 @@
           <t>4935873996</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:00:02</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44395.54168981482</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9806,10 +9570,8 @@
           <t>4935417600</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:59:47</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44395.5415162037</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9885,10 +9647,8 @@
           <t>4935871678</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:59:03</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44395.54100694445</v>
       </c>
       <c r="I129" t="n">
         <v>2</v>
@@ -9956,10 +9716,8 @@
           <t>4935862303</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:58:51</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44395.54086805556</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10031,10 +9789,8 @@
           <t>4935858190</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:57:35</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44395.53998842592</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10106,10 +9862,8 @@
           <t>4935388746</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:57:19</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44395.53980324074</v>
       </c>
       <c r="I132" t="n">
         <v>1</v>
@@ -10185,10 +9939,8 @@
           <t>4935848572</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:57:07</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44395.53966435185</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10252,10 +10004,8 @@
           <t>4935856995</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:57:05</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44395.5396412037</v>
       </c>
       <c r="I134" t="n">
         <v>1</v>
@@ -10323,10 +10073,8 @@
           <t>4935856194</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:56:44</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44395.53939814815</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -10394,10 +10142,8 @@
           <t>4935844751</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:56:06</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44395.53895833333</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10466,10 +10212,8 @@
           <t>4935307636</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:55:21</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44395.5384375</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10533,10 +10277,8 @@
           <t>4935842458</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:55:07</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44395.53827546296</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10606,10 +10348,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:54:19</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44395.53771990741</v>
       </c>
       <c r="I139" t="n">
         <v>6</v>
@@ -10677,10 +10417,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:53:25</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44395.53709490741</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10748,10 +10486,8 @@
           <t>4935384815</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:51:52</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44395.53601851852</v>
       </c>
       <c r="I141" t="n">
         <v>3</v>
@@ -10827,10 +10563,8 @@
           <t>4935816186</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:51:22</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44395.5356712963</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10906,10 +10640,8 @@
           <t>4935810991</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:50:14</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44395.53488425926</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10973,10 +10705,8 @@
           <t>4935332058</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:49:54</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44395.53465277778</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11052,10 +10782,8 @@
           <t>4935810085</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:49:52</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44395.53462962963</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11123,10 +10851,8 @@
           <t>4935794053</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:49:03</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44395.5340625</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11200,10 +10926,8 @@
           <t>4935792073</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:48:13</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44395.53348379629</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11279,10 +11003,8 @@
           <t>4935795984</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:48:09</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44395.5334375</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11350,10 +11072,8 @@
           <t>4935775858</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:47:19</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44395.53285879629</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11429,10 +11149,8 @@
           <t>4935775858</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:46:32</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44395.53231481482</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11504,10 +11222,8 @@
           <t>4935777999</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:46:27</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44395.53225694445</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11575,10 +11291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:46:24</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44395.53222222222</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11655,10 +11369,8 @@
           <t>4935307636</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:46:17</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44395.5321412037</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11722,10 +11434,8 @@
           <t>4935775858</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:46:10</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44395.53206018519</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11801,10 +11511,8 @@
           <t>4935775858</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:45:33</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44395.53163194445</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11876,10 +11584,8 @@
           <t>4935388746</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:45:32</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44395.53162037037</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -11955,10 +11661,8 @@
           <t>4935769464</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:45:25</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44395.53153935185</v>
       </c>
       <c r="I157" t="n">
         <v>1</v>
@@ -12022,10 +11726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:44:58</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44395.53122685185</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12089,10 +11791,8 @@
           <t>4935384815</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:44:56</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44395.5312037037</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12156,10 +11856,8 @@
           <t>4935621712</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:43:12</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44395.53</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12235,10 +11933,8 @@
           <t>4935621712</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:42:41</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44395.52964120371</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12310,10 +12006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:42:17</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44395.52936342593</v>
       </c>
       <c r="I162" t="n">
         <v>3</v>
@@ -12389,10 +12083,8 @@
           <t>4935332058</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:42:06</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44395.52923611111</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12460,10 +12152,8 @@
           <t>4935621712</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:41:30</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44395.52881944444</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12539,10 +12229,8 @@
           <t>4935355016</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:41:08</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44395.52856481481</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12618,10 +12306,8 @@
           <t>4935743900</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:41:07</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44395.52855324074</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -12689,10 +12375,8 @@
           <t>4935355016</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:38:46</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44395.5269212963</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12768,10 +12452,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:38:21</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44395.52663194444</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12847,10 +12529,8 @@
           <t>4935384815</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:38:01</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44395.52640046296</v>
       </c>
       <c r="I169" t="n">
         <v>4</v>
@@ -12918,10 +12598,8 @@
           <t>4935722046</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:37:59</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44395.52637731482</v>
       </c>
       <c r="I170" t="n">
         <v>2</v>
@@ -12993,10 +12671,8 @@
           <t>4935353933</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:36:38</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44395.52543981482</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -13064,10 +12740,8 @@
           <t>4935426835</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:35:57</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44395.52496527778</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13135,10 +12809,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:35:56</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44395.5249537037</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13202,10 +12874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:35:45</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44395.52482638889</v>
       </c>
       <c r="I174" t="n">
         <v>1</v>
@@ -13291,10 +12961,8 @@
           <t>4935688630</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:33:53</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44395.52353009259</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13366,10 +13034,8 @@
           <t>4935307636</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:33:34</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44395.52331018518</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13438,10 +13104,8 @@
           <t>4935695848</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:33:16</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44395.52310185185</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13513,10 +13177,8 @@
           <t>4935664927</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:30:12</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44395.52097222222</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13580,10 +13242,8 @@
           <t>4935664918</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:30:11</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44395.52096064815</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13651,10 +13311,8 @@
           <t>4935309365</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:29:49</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44395.52070601852</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13726,10 +13384,8 @@
           <t>4935660873</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:28:28</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44395.51976851852</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13797,10 +13453,8 @@
           <t>4935653092</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:27:49</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44395.51931712963</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13872,10 +13526,8 @@
           <t>4935297843</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:27:32</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44395.51912037037</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13939,10 +13591,8 @@
           <t>4935643657</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:27:11</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44395.51887731482</v>
       </c>
       <c r="I184" t="n">
         <v>2</v>
@@ -14014,10 +13664,8 @@
           <t>4935647027</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:26:50</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44395.51863425926</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14077,10 +13725,8 @@
           <t>4935384815</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:26:43</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44395.51855324074</v>
       </c>
       <c r="I186" t="n">
         <v>7</v>
@@ -14152,10 +13798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:26:27</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44395.51836805556</v>
       </c>
       <c r="I187" t="n">
         <v>1</v>
@@ -14223,10 +13867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:26:18</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44395.51826388889</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14294,10 +13936,8 @@
           <t>4935629430</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:25:14</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44395.51752314815</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14369,10 +14009,8 @@
           <t>4935417504</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:24:45</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44395.5171875</v>
       </c>
       <c r="I190" t="n">
         <v>1</v>
@@ -14440,10 +14078,8 @@
           <t>4935628311</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:24:43</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44395.51716435186</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14507,10 +14143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:24:20</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44395.51689814815</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14586,10 +14220,8 @@
           <t>4935613460</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:23:59</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44395.51665509259</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14661,10 +14293,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:23:37</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44395.51640046296</v>
       </c>
       <c r="I194" t="n">
         <v>3</v>
@@ -14740,10 +14370,8 @@
           <t>4935618233</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:23:04</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44395.51601851852</v>
       </c>
       <c r="I195" t="n">
         <v>1</v>
@@ -14816,10 +14444,8 @@
           <t>4935621712</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:22:58</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44395.51594907408</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14891,10 +14517,8 @@
           <t>4935614376</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:22:55</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44395.51591435185</v>
       </c>
       <c r="I197" t="n">
         <v>2</v>
@@ -14966,10 +14590,8 @@
           <t>4935620706</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:22:33</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44395.51565972222</v>
       </c>
       <c r="I198" t="n">
         <v>1</v>
@@ -15037,10 +14659,8 @@
           <t>4935613460</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:22:30</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44395.515625</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15100,10 +14720,8 @@
           <t>4935384815</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:22:04</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44395.51532407408</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15172,10 +14790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:22:00</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44395.51527777778</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15251,10 +14867,8 @@
           <t>4935609126</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:21:51</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44395.51517361111</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15330,10 +14944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:21:48</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44395.51513888889</v>
       </c>
       <c r="I203" t="n">
         <v>4</v>
@@ -15401,10 +15013,8 @@
           <t>4935595203</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:20:59</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44395.51457175926</v>
       </c>
       <c r="I204" t="n">
         <v>1</v>
@@ -15472,10 +15082,8 @@
           <t>4935298628</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:20:47</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44395.51443287037</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15535,10 +15143,8 @@
           <t>4935598169</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:20:04</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44395.51393518518</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15598,10 +15204,8 @@
           <t>4935353933</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:19:41</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44395.51366898148</v>
       </c>
       <c r="I207" t="n">
         <v>1</v>
@@ -15665,10 +15269,8 @@
           <t>4935486100</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:19:32</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44395.51356481481</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15740,10 +15342,8 @@
           <t>4935596494</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:19:16</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44395.51337962963</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15815,10 +15415,8 @@
           <t>4935588727</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:19:01</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44395.51320601852</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15886,10 +15484,8 @@
           <t>4935595203</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:18:40</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44395.51296296297</v>
       </c>
       <c r="I211" t="n">
         <v>2</v>
@@ -15957,10 +15553,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:18:07</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44395.51258101852</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -16020,10 +15614,8 @@
           <t>4935579280</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:17:41</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44395.51228009259</v>
       </c>
       <c r="I213" t="n">
         <v>4</v>
@@ -16095,10 +15687,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:16:49</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44395.51167824074</v>
       </c>
       <c r="I214" t="n">
         <v>2</v>
@@ -16162,10 +15752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:16:37</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44395.51153935185</v>
       </c>
       <c r="I215" t="n">
         <v>1</v>
@@ -16237,10 +15825,8 @@
           <t>4935572253</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:16:12</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44395.51125</v>
       </c>
       <c r="I216" t="n">
         <v>2</v>
@@ -16312,10 +15898,8 @@
           <t>4935572065</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:16:07</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44395.51119212963</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16391,10 +15975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:15:56</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44395.51106481482</v>
       </c>
       <c r="I218" t="n">
         <v>7</v>
@@ -16470,10 +16052,8 @@
           <t>4935532322</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:15:55</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44395.51105324074</v>
       </c>
       <c r="I219" t="n">
         <v>1</v>
@@ -16546,10 +16126,8 @@
           <t>4935568637</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:15:38</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44395.51085648148</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16617,10 +16195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:15:21</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44395.51065972223</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16688,10 +16264,8 @@
           <t>4935567526</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:15:07</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44395.51049768519</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16751,10 +16325,8 @@
           <t>4935559509</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:15:00</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44395.51041666666</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16818,10 +16390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:14:36</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44395.51013888889</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16889,10 +16459,8 @@
           <t>4935384815</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:14:34</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44395.51011574074</v>
       </c>
       <c r="I225" t="n">
         <v>4</v>
@@ -16968,10 +16536,8 @@
           <t>4935348765</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:13:18</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44395.50923611111</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17040,10 +16606,8 @@
           <t>4935486100</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:12:50</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44395.50891203704</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17119,10 +16683,8 @@
           <t>4935373008</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:12:43</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44395.50883101852</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17190,10 +16752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:11:37</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44395.50806712963</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17263,10 +16823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:10:53</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44395.50755787037</v>
       </c>
       <c r="I230" t="n">
         <v>9</v>
@@ -17330,10 +16888,8 @@
           <t>4935388746</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:10:32</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44395.50731481481</v>
       </c>
       <c r="I231" t="n">
         <v>1</v>
@@ -17402,10 +16958,8 @@
           <t>4935532322</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:10:31</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44395.50730324074</v>
       </c>
       <c r="I232" t="n">
         <v>2</v>
@@ -17481,10 +17035,8 @@
           <t>4935429895</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:10:12</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44395.50708333333</v>
       </c>
       <c r="I233" t="n">
         <v>1</v>
@@ -17553,10 +17105,8 @@
           <t>4935448266</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:09:47</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44395.50679398148</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17620,10 +17170,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:09:08</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44395.50634259259</v>
       </c>
       <c r="I235" t="n">
         <v>4</v>
@@ -17695,10 +17243,8 @@
           <t>4935514107</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:08:32</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44395.50592592593</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17767,10 +17313,8 @@
           <t>4935522198</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:08:19</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44395.50577546296</v>
       </c>
       <c r="I237" t="n">
         <v>1</v>
@@ -17834,10 +17378,8 @@
           <t>4935509681</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:07:59</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44395.50554398148</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17909,10 +17451,8 @@
           <t>4935297628</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:07:56</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44395.50550925926</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17988,10 +17528,8 @@
           <t>4935520829</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:07:45</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44395.50538194444</v>
       </c>
       <c r="I240" t="n">
         <v>1</v>
@@ -18059,10 +17597,8 @@
           <t>4935511426</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:07:26</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44395.50516203704</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18126,10 +17662,8 @@
           <t>4935511289</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:07:22</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44395.50511574074</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18205,10 +17739,8 @@
           <t>4935515238</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:07:18</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44395.50506944444</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18276,10 +17808,8 @@
           <t>4935486100</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:07:18</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44395.50506944444</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18351,10 +17881,8 @@
           <t>4935509681</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:07:16</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44395.5050462963</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18422,10 +17950,8 @@
           <t>4935412085</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:07:11</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44395.50498842593</v>
       </c>
       <c r="I246" t="n">
         <v>1</v>
@@ -18501,10 +18027,8 @@
           <t>4935448266</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:07:02</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44395.50488425926</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18576,10 +18100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:06:32</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44395.50453703704</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18651,10 +18173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:06:31</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44395.50452546297</v>
       </c>
       <c r="I249" t="n">
         <v>6</v>
@@ -18730,10 +18250,8 @@
           <t>4935348765</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:06:27</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44395.50447916667</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18801,10 +18319,8 @@
           <t>4935448266</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:06:23</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44395.50443287037</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -18868,10 +18384,8 @@
           <t>4935503202</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:06:23</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44395.50443287037</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18939,10 +18453,8 @@
           <t>4935498506</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:06:14</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44395.5043287037</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -19014,10 +18526,8 @@
           <t>4935498171</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:06:06</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44395.50423611111</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19085,10 +18595,8 @@
           <t>4935332058</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:05:56</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44395.50412037037</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19160,10 +18668,8 @@
           <t>4935497704</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:05:54</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44395.50409722222</v>
       </c>
       <c r="I256" t="n">
         <v>1</v>
@@ -19235,10 +18741,8 @@
           <t>4935400342</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:05:41</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44395.50394675926</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19310,10 +18814,8 @@
           <t>4935359347</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:05:32</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44395.5038425926</v>
       </c>
       <c r="I258" t="n">
         <v>1</v>
@@ -19381,10 +18883,8 @@
           <t>4935500878</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:05:20</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44395.5037037037</v>
       </c>
       <c r="I259" t="n">
         <v>2</v>
@@ -19448,10 +18948,8 @@
           <t>4935321910</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:05:18</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44395.50368055556</v>
       </c>
       <c r="I260" t="n">
         <v>2</v>
@@ -19523,10 +19021,8 @@
           <t>4935348765</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:04:54</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44395.50340277778</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19594,10 +19090,8 @@
           <t>4935489768</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:04:40</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44395.50324074074</v>
       </c>
       <c r="I262" t="n">
         <v>1</v>
@@ -19665,10 +19159,8 @@
           <t>4935484380</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:04:40</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44395.50324074074</v>
       </c>
       <c r="I263" t="n">
         <v>1</v>
@@ -19736,10 +19228,8 @@
           <t>4935442012</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:04:37</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44395.50320601852</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19815,10 +19305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:04:10</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44395.50289351852</v>
       </c>
       <c r="I265" t="n">
         <v>2</v>
@@ -19886,10 +19374,8 @@
           <t>4935424215</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:03:52</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44395.50268518519</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19961,10 +19447,8 @@
           <t>4935419642</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:03:37</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44395.50251157407</v>
       </c>
       <c r="I267" t="n">
         <v>2</v>
@@ -20036,10 +19520,8 @@
           <t>4935486100</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:03:10</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44395.50219907407</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20107,10 +19589,8 @@
           <t>4935412199</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:03:06</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44395.50215277778</v>
       </c>
       <c r="I269" t="n">
         <v>2</v>
@@ -20174,10 +19654,8 @@
           <t>4935361091</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:03:06</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44395.50215277778</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20261,10 +19739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:03:00</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44395.50208333333</v>
       </c>
       <c r="I271" t="n">
         <v>17</v>
@@ -20332,10 +19808,8 @@
           <t>4935485608</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:02:59</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44395.50207175926</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20412,10 +19886,8 @@
           <t>4935480231</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:02:49</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44395.50195601852</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20483,10 +19955,8 @@
           <t>4935321910</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:02:38</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44395.5018287037</v>
       </c>
       <c r="I274" t="n">
         <v>1</v>
@@ -20558,10 +20028,8 @@
           <t>4935381142</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:02:31</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44395.50174768519</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20629,10 +20097,8 @@
           <t>4935417504</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:02:13</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44395.50153935186</v>
       </c>
       <c r="I276" t="n">
         <v>1</v>
@@ -20696,10 +20162,8 @@
           <t>4935477167</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:02:12</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44395.50152777778</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20775,10 +20239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:01:57</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44395.50135416666</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20838,10 +20300,8 @@
           <t>4935412085</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:01:16</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44395.50087962963</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20909,10 +20369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:01:11</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44395.50082175926</v>
       </c>
       <c r="I280" t="n">
         <v>3</v>
@@ -20976,10 +20434,8 @@
           <t>4935412085</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:01:10</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44395.50081018519</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -21051,10 +20507,8 @@
           <t>4935466301</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:01:10</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44395.50081018519</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21122,10 +20576,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:01:02</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44395.50071759259</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21189,10 +20641,8 @@
           <t>4935459940</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:00:52</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44395.50060185185</v>
       </c>
       <c r="I284" t="n">
         <v>1</v>
@@ -21260,10 +20710,8 @@
           <t>4935381142</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:00:34</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44395.50039351852</v>
       </c>
       <c r="I285" t="n">
         <v>1</v>
@@ -21331,10 +20779,8 @@
           <t>4935454312</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:00:21</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44395.50024305555</v>
       </c>
       <c r="I286" t="n">
         <v>2</v>
@@ -21406,10 +20852,8 @@
           <t>4935453736</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:00:05</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44395.50005787037</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21481,10 +20925,8 @@
           <t>4935412085</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:00:04</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44395.5000462963</v>
       </c>
       <c r="I288" t="n">
         <v>2</v>
@@ -21552,10 +20994,8 @@
           <t>4935412199</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:00:03</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44395.50003472222</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21623,10 +21063,8 @@
           <t>4935412085</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-18 12:00:02</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44395.50002314815</v>
       </c>
       <c r="I290" t="n">
         <v>1</v>
@@ -21690,10 +21128,8 @@
           <t>4935453516</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:59:59</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44395.49998842592</v>
       </c>
       <c r="I291" t="n">
         <v>1</v>
@@ -21753,10 +21189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:59:46</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44395.49983796296</v>
       </c>
       <c r="I292" t="n">
         <v>5</v>
@@ -21820,10 +21254,8 @@
           <t>4935353933</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:59:46</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44395.49983796296</v>
       </c>
       <c r="I293" t="n">
         <v>1</v>
@@ -21891,10 +21323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:59:33</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44395.4996875</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21958,10 +21388,8 @@
           <t>4935353933</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:59:23</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44395.49957175926</v>
       </c>
       <c r="I295" t="n">
         <v>2</v>
@@ -22033,10 +21461,8 @@
           <t>4935430164</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:59:20</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44395.49953703704</v>
       </c>
       <c r="I296" t="n">
         <v>1</v>
@@ -22112,10 +21538,8 @@
           <t>4935297628</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:59:18</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44395.49951388889</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22191,10 +21615,8 @@
           <t>4935353933</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:59:15</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44395.49947916667</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22270,10 +21692,8 @@
           <t>4935455773</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:59:11</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44395.49943287037</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22349,10 +21769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:59:08</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44395.49939814815</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22420,10 +21838,8 @@
           <t>4935455579</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:59:06</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44395.499375</v>
       </c>
       <c r="I301" t="n">
         <v>1</v>
@@ -22491,10 +21907,8 @@
           <t>4935412085</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:58:54</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44395.49923611111</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22562,10 +21976,8 @@
           <t>4935448266</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:58:39</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44395.4990625</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
@@ -22637,10 +22049,8 @@
           <t>4935297628</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:58:33</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44395.49899305555</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22716,10 +22126,8 @@
           <t>4935429895</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:58:24</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44395.49888888889</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22783,10 +22191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:58:20</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44395.49884259259</v>
       </c>
       <c r="I306" t="n">
         <v>1</v>
@@ -22846,10 +22252,8 @@
           <t>4935430383</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:58:20</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44395.49884259259</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22917,10 +22321,8 @@
           <t>4935348765</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:58:09</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44395.49871527778</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22988,10 +22390,8 @@
           <t>4935412085</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:57:48</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44395.49847222222</v>
       </c>
       <c r="I309" t="n">
         <v>2</v>
@@ -23063,10 +22463,8 @@
           <t>4935412085</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:57:47</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44395.49846064814</v>
       </c>
       <c r="I310" t="n">
         <v>3</v>
@@ -23134,10 +22532,8 @@
           <t>4935408061</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:57:40</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44395.49837962963</v>
       </c>
       <c r="I311" t="n">
         <v>1</v>
@@ -23209,10 +22605,8 @@
           <t>4935442012</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:57:37</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44395.49834490741</v>
       </c>
       <c r="I312" t="n">
         <v>1</v>
@@ -23280,10 +22674,8 @@
           <t>4935412199</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:57:35</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44395.49832175926</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23359,10 +22751,8 @@
           <t>4935441901</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:57:34</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44395.49831018518</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23438,10 +22828,8 @@
           <t>4935384815</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:57:29</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44395.49825231481</v>
       </c>
       <c r="I315" t="n">
         <v>7</v>
@@ -23513,10 +22901,8 @@
           <t>4935297628</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:57:22</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44395.4981712963</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23588,10 +22974,8 @@
           <t>4935441359</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:57:20</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44395.49814814814</v>
       </c>
       <c r="I317" t="n">
         <v>2</v>
@@ -23659,10 +23043,8 @@
           <t>4935348765</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:57:20</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44395.49814814814</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23734,10 +23116,8 @@
           <t>4935445077</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:57:20</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44395.49814814814</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23814,10 +23194,8 @@
           <t>4935307636</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:57:20</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44395.49814814814</v>
       </c>
       <c r="I320" t="n">
         <v>2</v>
@@ -23881,10 +23259,8 @@
           <t>4935440977</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:57:10</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44395.49803240741</v>
       </c>
       <c r="I321" t="n">
         <v>4</v>
@@ -23948,10 +23324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:57:04</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44395.49796296296</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -24027,10 +23401,8 @@
           <t>4935434397</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:57:02</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44395.49793981481</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24098,10 +23470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:56:58</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44395.49789351852</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -24165,10 +23535,8 @@
           <t>4935359347</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:56:57</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44395.49788194444</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24244,10 +23612,8 @@
           <t>4935332058</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:56:55</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44395.4978587963</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24315,10 +23681,8 @@
           <t>4935430383</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:56:48</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44395.49777777777</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24394,10 +23758,8 @@
           <t>4935436446</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:56:46</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44395.49775462963</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24461,10 +23823,8 @@
           <t>4935429895</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:56:42</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44395.49770833334</v>
       </c>
       <c r="I329" t="n">
         <v>13</v>
@@ -24532,10 +23892,8 @@
           <t>4935429760</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:56:39</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44395.49767361111</v>
       </c>
       <c r="I330" t="n">
         <v>1</v>
@@ -24607,10 +23965,8 @@
           <t>4935355016</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:56:37</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44395.49765046296</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24687,10 +24043,8 @@
           <t>4935353933</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:56:35</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44395.49762731481</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24754,10 +24108,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:56:16</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44395.49740740741</v>
       </c>
       <c r="I333" t="n">
         <v>2</v>
@@ -24830,10 +24182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:56:13</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44395.49737268518</v>
       </c>
       <c r="I334" t="n">
         <v>5</v>
@@ -24901,10 +24251,8 @@
           <t>4935412085</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:56:07</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44395.49730324074</v>
       </c>
       <c r="I335" t="n">
         <v>3</v>
@@ -24980,10 +24328,8 @@
           <t>4935428447</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:56:04</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44395.49726851852</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25055,10 +24401,8 @@
           <t>4935332058</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:55:59</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44395.49721064815</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25126,10 +24470,8 @@
           <t>4935353933</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:55:52</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44395.49712962963</v>
       </c>
       <c r="I338" t="n">
         <v>1</v>
@@ -25205,10 +24547,8 @@
           <t>4935431760</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:55:51</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44395.49711805556</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25284,10 +24624,8 @@
           <t>4935427779</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:55:46</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44395.49706018518</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25363,10 +24701,8 @@
           <t>4935307636</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:55:44</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44395.49703703704</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25442,10 +24778,8 @@
           <t>4935424215</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:55:42</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44395.49701388889</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25517,10 +24851,8 @@
           <t>4935427096</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:55:27</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44395.49684027778</v>
       </c>
       <c r="I343" t="n">
         <v>1</v>
@@ -25596,10 +24928,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:55:24</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44395.49680555556</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25671,10 +25001,8 @@
           <t>4935423595</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:55:24</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44395.49680555556</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25750,10 +25078,8 @@
           <t>4935426835</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:55:21</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44395.49677083334</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25829,10 +25155,8 @@
           <t>4935400761</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:55:14</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44395.49668981481</v>
       </c>
       <c r="I347" t="n">
         <v>1</v>
@@ -25904,10 +25228,8 @@
           <t>4935430383</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:55:14</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44395.49668981481</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25975,10 +25297,8 @@
           <t>4935430164</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:55:09</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44395.49663194444</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -26042,10 +25362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:55:00</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44395.49652777778</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26113,10 +25431,8 @@
           <t>4935419642</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:54:55</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44395.4964699074</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26192,10 +25508,8 @@
           <t>4935355016</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:54:53</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44395.49644675926</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26271,10 +25585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:54:32</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44395.4962037037</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26338,10 +25650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:54:25</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44395.49612268519</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26417,10 +25727,8 @@
           <t>4935384815</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:54:12</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44395.49597222222</v>
       </c>
       <c r="I355" t="n">
         <v>14</v>
@@ -26492,10 +25800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:54:08</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44395.49592592593</v>
       </c>
       <c r="I356" t="n">
         <v>1</v>
@@ -26563,10 +25869,8 @@
           <t>4935417600</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:54:01</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44395.4958449074</v>
       </c>
       <c r="I357" t="n">
         <v>2</v>
@@ -26642,10 +25946,8 @@
           <t>4935417504</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:53:58</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44395.49581018519</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26717,10 +26019,8 @@
           <t>4935413586</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:53:57</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44395.49579861111</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26797,10 +26097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:53:46</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44395.4956712963</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26872,10 +26170,8 @@
           <t>4935353699</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:53:39</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44395.49559027778</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26951,10 +26247,8 @@
           <t>4935384815</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:53:37</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44395.49556712963</v>
       </c>
       <c r="I362" t="n">
         <v>1</v>
@@ -27022,10 +26316,8 @@
           <t>4935408061</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:53:36</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44395.49555555556</v>
       </c>
       <c r="I363" t="n">
         <v>2</v>
@@ -27089,10 +26381,8 @@
           <t>4935412199</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:53:20</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44395.49537037037</v>
       </c>
       <c r="I364" t="n">
         <v>6</v>
@@ -27160,10 +26450,8 @@
           <t>4935412085</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:53:17</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44395.49533564815</v>
       </c>
       <c r="I365" t="n">
         <v>2</v>
@@ -27231,10 +26519,8 @@
           <t>4935294102</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:53:09</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44395.49524305556</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27302,10 +26588,8 @@
           <t>4935408610</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:53:05</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44395.49519675926</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27373,10 +26657,8 @@
           <t>4935411178</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:52:54</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44395.49506944444</v>
       </c>
       <c r="I368" t="n">
         <v>16</v>
@@ -27444,10 +26726,8 @@
           <t>4935332058</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:52:53</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44395.49505787037</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27519,10 +26799,8 @@
           <t>4935408164</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:52:53</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44395.49505787037</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27590,10 +26868,8 @@
           <t>4935408061</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:52:50</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44395.49502314815</v>
       </c>
       <c r="I371" t="n">
         <v>17</v>
@@ -27669,10 +26945,8 @@
           <t>4935353933</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:52:29</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44395.49478009259</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27740,10 +27014,8 @@
           <t>4935410129</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:52:27</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44395.49475694444</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27807,10 +27079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:52:23</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44395.49471064815</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27870,10 +27140,8 @@
           <t>4935353933</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:52:21</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44395.4946875</v>
       </c>
       <c r="I375" t="n">
         <v>5</v>
@@ -27945,10 +27213,8 @@
           <t>4935406879</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:52:18</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44395.49465277778</v>
       </c>
       <c r="I376" t="n">
         <v>4</v>
@@ -28020,10 +27286,8 @@
           <t>4935403535</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:52:18</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44395.49465277778</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -28091,10 +27355,8 @@
           <t>4935406700</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:52:13</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44395.49459490741</v>
       </c>
       <c r="I378" t="n">
         <v>12</v>
@@ -28158,10 +27420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:52:11</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44395.49457175926</v>
       </c>
       <c r="I379" t="n">
         <v>11</v>
@@ -28237,10 +27497,8 @@
           <t>4935406191</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:51:58</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44395.49442129629</v>
       </c>
       <c r="I380" t="n">
         <v>2</v>
@@ -28308,10 +27566,8 @@
           <t>4935405659</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:51:42</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44395.49423611111</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28375,10 +27631,8 @@
           <t>4935384815</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:51:37</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44395.49417824074</v>
       </c>
       <c r="I382" t="n">
         <v>23</v>
@@ -28454,10 +27708,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:51:34</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44395.49414351852</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28533,10 +27785,8 @@
           <t>4935401848</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:51:34</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44395.49414351852</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28612,10 +27862,8 @@
           <t>4935401432</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:51:23</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44395.4940162037</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28679,10 +27927,8 @@
           <t>4935388746</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:51:18</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44395.49395833333</v>
       </c>
       <c r="I386" t="n">
         <v>2</v>
@@ -28758,10 +28004,8 @@
           <t>4935278143</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:51:18</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44395.49395833333</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28837,10 +28081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:51:14</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44395.49391203704</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28912,10 +28154,8 @@
           <t>4935401007</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:51:12</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44395.49388888889</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28991,10 +28231,8 @@
           <t>4935400761</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:51:06</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44395.49381944445</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -29070,10 +28308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:51:05</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44395.49380787037</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29145,10 +28381,8 @@
           <t>4935400342</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:50:54</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44395.49368055556</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29224,10 +28458,8 @@
           <t>4935389867</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:50:42</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44395.49354166666</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29299,10 +28531,8 @@
           <t>4935359347</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:50:36</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44395.49347222222</v>
       </c>
       <c r="I394" t="n">
         <v>1</v>
@@ -29378,10 +28608,8 @@
           <t>4935353933</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:50:35</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44395.49346064815</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29449,10 +28677,8 @@
           <t>4935388746</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:50:12</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44395.49319444445</v>
       </c>
       <c r="I396" t="n">
         <v>1</v>
@@ -29520,10 +28746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:50:11</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44395.49318287037</v>
       </c>
       <c r="I397" t="n">
         <v>142</v>
@@ -29596,10 +28820,8 @@
           <t>4935384815</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:50:04</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44395.49310185185</v>
       </c>
       <c r="I398" t="n">
         <v>8</v>
@@ -29667,10 +28889,8 @@
           <t>4935392210</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:50:03</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44395.49309027778</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29742,10 +28962,8 @@
           <t>4935321910</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:50:03</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44395.49309027778</v>
       </c>
       <c r="I400" t="n">
         <v>2</v>
@@ -29814,10 +29032,8 @@
           <t>4935317572</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:49:56</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44395.49300925926</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29893,10 +29109,8 @@
           <t>4935361091</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:49:54</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44395.49298611111</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29972,10 +29186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:49:50</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44395.49293981482</v>
       </c>
       <c r="I403" t="n">
         <v>7</v>
@@ -30039,10 +29251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:49:39</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44395.4928125</v>
       </c>
       <c r="I404" t="n">
         <v>82</v>
@@ -30106,10 +29316,8 @@
           <t>4935332896</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:49:38</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44395.49280092592</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30169,10 +29377,8 @@
           <t>4935317572</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:49:34</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44395.49275462963</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30248,10 +29454,8 @@
           <t>4935353933</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:49:05</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44395.49241898148</v>
       </c>
       <c r="I407" t="n">
         <v>3</v>
@@ -30323,10 +29527,8 @@
           <t>4935307636</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:49:00</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44395.49236111111</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30398,10 +29600,8 @@
           <t>4935382174</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:48:54</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44395.49229166667</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30465,10 +29665,8 @@
           <t>4935332058</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:48:52</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44395.49226851852</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30536,10 +29734,8 @@
           <t>4935381142</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:48:26</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44395.49196759259</v>
       </c>
       <c r="I411" t="n">
         <v>2</v>
@@ -30607,10 +29803,8 @@
           <t>4935321910</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:48:18</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44395.491875</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30686,10 +29880,8 @@
           <t>4935352972</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:48:10</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44395.49178240741</v>
       </c>
       <c r="I413" t="n">
         <v>2</v>
@@ -30757,10 +29949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:48:08</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44395.49175925926</v>
       </c>
       <c r="I414" t="n">
         <v>45</v>
@@ -30832,10 +30022,8 @@
           <t>4935361483</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:48:08</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44395.49175925926</v>
       </c>
       <c r="I415" t="n">
         <v>3</v>
@@ -30903,10 +30091,8 @@
           <t>4935307636</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:48:04</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44395.49171296296</v>
       </c>
       <c r="I416" t="n">
         <v>14</v>
@@ -30970,10 +30156,8 @@
           <t>4935377975</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:48:02</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44395.49168981481</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -31037,10 +30221,8 @@
           <t>4935369995</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:47:55</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44395.4916087963</v>
       </c>
       <c r="I418" t="n">
         <v>15</v>
@@ -31109,10 +30291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:47:53</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44395.49158564815</v>
       </c>
       <c r="I419" t="n">
         <v>33</v>
@@ -31188,10 +30368,8 @@
           <t>4935355016</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:47:50</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44395.49155092592</v>
       </c>
       <c r="I420" t="n">
         <v>3</v>
@@ -31263,10 +30441,8 @@
           <t>4935359347</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:47:42</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44395.49145833333</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31330,10 +30506,8 @@
           <t>4935373008</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:47:41</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44395.49144675926</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31393,10 +30567,8 @@
           <t>4935372427</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:47:26</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44395.49127314815</v>
       </c>
       <c r="I423" t="n">
         <v>1</v>
@@ -31460,10 +30632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:47:19</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44395.49119212963</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31527,10 +30697,8 @@
           <t>4935348765</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:47:18</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44395.49118055555</v>
       </c>
       <c r="I425" t="n">
         <v>5</v>
@@ -31606,10 +30774,8 @@
           <t>4935376477</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:47:18</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44395.49118055555</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31685,10 +30851,8 @@
           <t>4935354598</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:47:14</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44395.49113425926</v>
       </c>
       <c r="I427" t="n">
         <v>12</v>
@@ -31756,10 +30920,8 @@
           <t>4935371106</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:46:50</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44395.49085648148</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31835,10 +30997,8 @@
           <t>4935355016</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:46:48</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44395.49083333334</v>
       </c>
       <c r="I429" t="n">
         <v>2</v>
@@ -31902,10 +31062,8 @@
           <t>4935353933</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:46:31</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44395.49063657408</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31973,10 +31131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:46:24</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44395.49055555555</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -32052,10 +31208,8 @@
           <t>4935355016</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:46:17</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44395.49047453704</v>
       </c>
       <c r="I432" t="n">
         <v>2</v>
@@ -32127,10 +31281,8 @@
           <t>4935359347</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:46:04</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44395.49032407408</v>
       </c>
       <c r="I433" t="n">
         <v>7</v>
@@ -32199,10 +31351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:46:03</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44395.4903125</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32270,10 +31420,8 @@
           <t>4935365463</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:45:55</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44395.49021990741</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32341,10 +31489,8 @@
           <t>4935358936</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:45:52</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44395.49018518518</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32412,10 +31558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:45:49</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44395.49015046296</v>
       </c>
       <c r="I437" t="n">
         <v>9</v>
@@ -32483,10 +31627,8 @@
           <t>4935355016</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:45:48</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44395.49013888889</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32550,10 +31692,8 @@
           <t>4935355016</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:45:41</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44395.49005787037</v>
       </c>
       <c r="I439" t="n">
         <v>1</v>
@@ -32617,10 +31757,8 @@
           <t>4935362860</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:45:35</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44395.48998842593</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32684,10 +31822,8 @@
           <t>4935354706</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:45:35</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44395.48998842593</v>
       </c>
       <c r="I441" t="n">
         <v>1</v>
@@ -32751,10 +31887,8 @@
           <t>4935354696</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:45:34</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44395.48997685185</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32814,10 +31948,8 @@
           <t>4935354598</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:45:32</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44395.48995370371</v>
       </c>
       <c r="I443" t="n">
         <v>26</v>
@@ -32889,10 +32021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:45:23</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44395.48984953704</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32968,10 +32098,8 @@
           <t>4935332058</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:45:23</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44395.48984953704</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -33048,10 +32176,8 @@
           <t>4935353933</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:45:15</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44395.48975694444</v>
       </c>
       <c r="I446" t="n">
         <v>4</v>
@@ -33123,10 +32249,8 @@
           <t>4935353699</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:45:09</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44395.4896875</v>
       </c>
       <c r="I447" t="n">
         <v>4</v>
@@ -33194,10 +32318,8 @@
           <t>4935348765</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:45:02</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44395.48960648148</v>
       </c>
       <c r="I448" t="n">
         <v>1</v>
@@ -33261,10 +32383,8 @@
           <t>4935361483</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:44:56</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44395.48953703704</v>
       </c>
       <c r="I449" t="n">
         <v>5</v>
@@ -33340,10 +32460,8 @@
           <t>4935352972</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:44:51</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44395.48947916667</v>
       </c>
       <c r="I450" t="n">
         <v>5</v>
@@ -33419,10 +32537,8 @@
           <t>4935361091</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:44:45</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44395.48940972222</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33486,10 +32602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:44:43</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44395.48938657407</v>
       </c>
       <c r="I452" t="n">
         <v>16</v>
@@ -33553,10 +32667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:44:27</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44395.48920138889</v>
       </c>
       <c r="I453" t="n">
         <v>5</v>
@@ -33628,10 +32740,8 @@
           <t>4935317572</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:44:26</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44395.48918981481</v>
       </c>
       <c r="I454" t="n">
         <v>2</v>
@@ -33699,10 +32809,8 @@
           <t>4935307636</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:44:25</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44395.48917824074</v>
       </c>
       <c r="I455" t="n">
         <v>3</v>
@@ -33770,10 +32878,8 @@
           <t>4935355436</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:44:18</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44395.48909722222</v>
       </c>
       <c r="I456" t="n">
         <v>2</v>
@@ -33845,10 +32951,8 @@
           <t>4935360086</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:44:16</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44395.48907407407</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33916,10 +33020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:44:13</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44395.48903935185</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33988,10 +33090,8 @@
           <t>4935307636</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:44:09</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44395.48899305556</v>
       </c>
       <c r="I459" t="n">
         <v>3</v>
@@ -34063,10 +33163,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:44:07</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44395.4889699074</v>
       </c>
       <c r="I460" t="n">
         <v>1</v>
@@ -34134,10 +33232,8 @@
           <t>4935355016</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:44:07</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44395.4889699074</v>
       </c>
       <c r="I461" t="n">
         <v>18</v>
@@ -34214,10 +33310,8 @@
           <t>4935349629</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:44:03</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44395.48892361111</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34293,10 +33387,8 @@
           <t>4935351013</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:43:58</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44395.48886574074</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34372,10 +33464,8 @@
           <t>4935344340</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:43:49</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44395.48876157407</v>
       </c>
       <c r="I464" t="n">
         <v>2</v>
@@ -34439,10 +33529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:43:48</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44395.48875</v>
       </c>
       <c r="I465" t="n">
         <v>8</v>
@@ -34518,10 +33606,8 @@
           <t>4935348765</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:43:40</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44395.4886574074</v>
       </c>
       <c r="I466" t="n">
         <v>2</v>
@@ -34593,10 +33679,8 @@
           <t>4935332058</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:43:35</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44395.48859953704</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34660,10 +33744,8 @@
           <t>4935350031</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:43:32</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44395.48856481481</v>
       </c>
       <c r="I468" t="n">
         <v>1</v>
@@ -34731,10 +33813,8 @@
           <t>4935307636</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:43:29</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44395.4885300926</v>
       </c>
       <c r="I469" t="n">
         <v>3</v>
@@ -34806,10 +33886,8 @@
           <t>4935339893</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:43:28</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44395.48851851852</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34877,10 +33955,8 @@
           <t>4935332058</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:43:16</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44395.48837962963</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34948,10 +34024,8 @@
           <t>4935332058</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:43:06</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44395.48826388889</v>
       </c>
       <c r="I472" t="n">
         <v>1</v>
@@ -35027,10 +34101,8 @@
           <t>4935332058</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:43:02</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44395.4882175926</v>
       </c>
       <c r="I473" t="n">
         <v>0</v>
@@ -35102,10 +34174,8 @@
           <t>4935332058</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:43:01</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44395.48820601852</v>
       </c>
       <c r="I474" t="n">
         <v>1</v>
@@ -35169,10 +34239,8 @@
           <t>4935338861</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:42:59</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44395.48818287037</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35236,10 +34304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:42:52</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44395.48810185185</v>
       </c>
       <c r="I476" t="n">
         <v>153</v>
@@ -35307,10 +34373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:42:40</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44395.48796296296</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35378,10 +34442,8 @@
           <t>4935338115</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:42:39</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44395.48795138889</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35445,10 +34507,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:42:36</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44395.48791666667</v>
       </c>
       <c r="I479" t="n">
         <v>1</v>
@@ -35530,10 +34590,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:42:32</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44395.48787037037</v>
       </c>
       <c r="I480" t="n">
         <v>11</v>
@@ -35597,10 +34655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:42:27</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44395.4878125</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35668,10 +34724,8 @@
           <t>4935345223</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:41:59</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44395.48748842593</v>
       </c>
       <c r="I482" t="n">
         <v>4</v>
@@ -35747,10 +34801,8 @@
           <t>4935336581</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:41:58</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44395.48747685185</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35814,10 +34866,8 @@
           <t>4935345140</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:41:57</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44395.48746527778</v>
       </c>
       <c r="I484" t="n">
         <v>1</v>
@@ -35885,10 +34935,8 @@
           <t>4935329957</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:41:52</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44395.48740740741</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35952,10 +35000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:41:09</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44395.48690972223</v>
       </c>
       <c r="I486" t="n">
         <v>76</v>
@@ -36024,10 +35070,8 @@
           <t>4935317572</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:41:06</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44395.486875</v>
       </c>
       <c r="I487" t="n">
         <v>2</v>
@@ -36103,10 +35147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:41:00</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44395.48680555556</v>
       </c>
       <c r="I488" t="n">
         <v>1</v>
@@ -36170,10 +35212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:40:55</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44395.48674768519</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -36241,10 +35281,8 @@
           <t>4935332896</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:40:55</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44395.48674768519</v>
       </c>
       <c r="I490" t="n">
         <v>2</v>
@@ -36320,10 +35358,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:40:49</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44395.48667824074</v>
       </c>
       <c r="I491" t="n">
         <v>4</v>
@@ -36391,10 +35427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:40:46</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44395.48664351852</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36462,10 +35496,8 @@
           <t>4935321910</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:40:37</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44395.48653935185</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36537,10 +35569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:40:34</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44395.48650462963</v>
       </c>
       <c r="I494" t="n">
         <v>3</v>
@@ -36612,10 +35642,8 @@
           <t>4935332058</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:40:33</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44395.48649305556</v>
       </c>
       <c r="I495" t="n">
         <v>4</v>
@@ -36691,10 +35719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:40:21</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44395.48635416666</v>
       </c>
       <c r="I496" t="n">
         <v>4</v>
@@ -36762,10 +35788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:40:03</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44395.48614583333</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36841,10 +35865,8 @@
           <t>4935325994</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:39:57</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44395.48607638889</v>
       </c>
       <c r="I498" t="n">
         <v>1</v>
@@ -36916,10 +35938,8 @@
           <t>4935321910</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:39:51</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44395.48600694445</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -36995,10 +36015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:39:46</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44395.48594907407</v>
       </c>
       <c r="I500" t="n">
         <v>9</v>
@@ -37070,10 +36088,8 @@
           <t>4935321458</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:39:39</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44395.48586805556</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -37142,10 +36158,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:39:34</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44395.48581018519</v>
       </c>
       <c r="I502" t="n">
         <v>1</v>
@@ -37221,10 +36235,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:39:33</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44395.48579861111</v>
       </c>
       <c r="I503" t="n">
         <v>1</v>
@@ -37296,10 +36308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:39:25</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44395.48570601852</v>
       </c>
       <c r="I504" t="n">
         <v>1</v>
@@ -37376,10 +36386,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:39:22</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44395.48567129629</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37443,10 +36451,8 @@
           <t>4935314725</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:39:21</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44395.48565972222</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37514,10 +36520,8 @@
           <t>4935307636</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:39:14</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44395.4855787037</v>
       </c>
       <c r="I507" t="n">
         <v>1</v>
@@ -37585,10 +36589,8 @@
           <t>4935317572</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:39:11</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44395.48554398148</v>
       </c>
       <c r="I508" t="n">
         <v>4</v>
@@ -37656,10 +36658,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:39:07</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44395.48549768519</v>
       </c>
       <c r="I509" t="n">
         <v>7</v>
@@ -37735,10 +36735,8 @@
           <t>4935317572</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:39:06</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44395.48548611111</v>
       </c>
       <c r="I510" t="n">
         <v>10</v>
@@ -37814,10 +36812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:39:00</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44395.48541666667</v>
       </c>
       <c r="I511" t="n">
         <v>7</v>
@@ -37893,10 +36889,8 @@
           <t>4935320020</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:39:00</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44395.48541666667</v>
       </c>
       <c r="I512" t="n">
         <v>1</v>
@@ -37960,10 +36954,8 @@
           <t>4935309823</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:38:55</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44395.48535879629</v>
       </c>
       <c r="I513" t="n">
         <v>9</v>
@@ -38031,10 +37023,8 @@
           <t>4935313617</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:38:48</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44395.48527777778</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -38106,10 +37096,8 @@
           <t>4935317970</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:38:45</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44395.48524305555</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -38185,10 +37173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:38:44</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44395.48523148148</v>
       </c>
       <c r="I516" t="n">
         <v>1</v>
@@ -38256,10 +37242,8 @@
           <t>4935309365</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:38:43</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44395.48521990741</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -38335,10 +37319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:38:40</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44395.48518518519</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38406,10 +37388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:38:37</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44395.48515046296</v>
       </c>
       <c r="I519" t="n">
         <v>1</v>
@@ -38477,10 +37457,8 @@
           <t>4935317572</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:38:34</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44395.48511574074</v>
       </c>
       <c r="I520" t="n">
         <v>30</v>
@@ -38556,10 +37534,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:38:25</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44395.48501157408</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -38631,10 +37607,8 @@
           <t>4935293833</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:38:16</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44395.48490740741</v>
       </c>
       <c r="I522" t="n">
         <v>1</v>
@@ -38702,10 +37676,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:37:57</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44395.4846875</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -38773,10 +37745,8 @@
           <t>4935307636</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:37:56</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44395.48467592592</v>
       </c>
       <c r="I524" t="n">
         <v>2</v>
@@ -38840,10 +37810,8 @@
           <t>4935294158</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:37:50</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44395.48460648148</v>
       </c>
       <c r="I525" t="n">
         <v>1</v>
@@ -38922,10 +37890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:37:49</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44395.48459490741</v>
       </c>
       <c r="I526" t="n">
         <v>40</v>
@@ -39001,10 +37967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:37:48</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44395.48458333333</v>
       </c>
       <c r="I527" t="n">
         <v>23</v>
@@ -39080,10 +38044,8 @@
           <t>4935315431</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:37:37</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44395.48445601852</v>
       </c>
       <c r="I528" t="n">
         <v>3</v>
@@ -39151,10 +38113,8 @@
           <t>4935310405</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:37:18</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44395.48423611111</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -39230,10 +38190,8 @@
           <t>4935303608</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:36:50</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44395.48391203704</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -39305,10 +38263,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:36:45</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44395.48385416667</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -39380,10 +38336,8 @@
           <t>4935298736</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:36:31</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44395.48369212963</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39459,10 +38413,8 @@
           <t>4935298677</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:36:30</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44395.48368055555</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39534,10 +38486,8 @@
           <t>4935294322</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:36:29</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44395.48366898148</v>
       </c>
       <c r="I534" t="n">
         <v>1</v>
@@ -39612,10 +38562,8 @@
           <t>4935298628</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:36:28</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44395.48365740741</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -39679,10 +38627,8 @@
           <t>4935294158</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:36:25</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44395.48362268518</v>
       </c>
       <c r="I536" t="n">
         <v>1</v>
@@ -39746,10 +38692,8 @@
           <t>4935294102</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:36:23</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44395.48359953704</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39809,10 +38753,8 @@
           <t>4935293833</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:36:16</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44395.48351851852</v>
       </c>
       <c r="I538" t="n">
         <v>2</v>
@@ -39884,10 +38826,8 @@
           <t>4935297843</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:36:05</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44395.48339120371</v>
       </c>
       <c r="I539" t="n">
         <v>4</v>
@@ -39951,10 +38891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:36:01</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44395.48334490741</v>
       </c>
       <c r="I540" t="n">
         <v>49</v>
@@ -40022,10 +38960,8 @@
           <t>4935297628</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:35:59</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44395.48332175926</v>
       </c>
       <c r="I541" t="n">
         <v>6</v>
@@ -40093,10 +39029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:35:50</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44395.48321759259</v>
       </c>
       <c r="I542" t="n">
         <v>1</v>
@@ -40168,10 +39102,8 @@
           <t>4935297315</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:35:50</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44395.48321759259</v>
       </c>
       <c r="I543" t="n">
         <v>3</v>
@@ -40248,10 +39180,8 @@
           <t>4935292705</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:35:46</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44395.4831712963</v>
       </c>
       <c r="I544" t="n">
         <v>1</v>
@@ -40315,10 +39245,8 @@
           <t>4935297008</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:35:41</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44395.48311342593</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -40386,10 +39314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:35:40</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44395.48310185185</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40465,10 +39391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:35:25</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44395.48292824074</v>
       </c>
       <c r="I547" t="n">
         <v>1</v>
@@ -40546,10 +39470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:35:14</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44395.48280092593</v>
       </c>
       <c r="I548" t="n">
         <v>376</v>
@@ -40618,10 +39540,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:35:13</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44395.48278935185</v>
       </c>
       <c r="I549" t="n">
         <v>1</v>
@@ -40697,10 +39617,8 @@
           <t>4935278143</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:35:07</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44395.48271990741</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -40772,10 +39690,8 @@
           <t>4935291221</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:35:05</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44395.48269675926</v>
       </c>
       <c r="I551" t="n">
         <v>2</v>
@@ -40844,10 +39760,8 @@
           <t>4935289489</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:34:59</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44395.48262731481</v>
       </c>
       <c r="I552" t="n">
         <v>2</v>
@@ -40919,10 +39833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:34:57</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44395.48260416667</v>
       </c>
       <c r="I553" t="n">
         <v>1</v>
@@ -40990,10 +39902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:34:53</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44395.48255787037</v>
       </c>
       <c r="I554" t="n">
         <v>34</v>
@@ -41061,10 +39971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:34:41</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44395.48241898148</v>
       </c>
       <c r="I555" t="n">
         <v>6</v>
@@ -41140,10 +40048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:34:39</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44395.48239583334</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -41211,10 +40117,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:34:38</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44395.48238425926</v>
       </c>
       <c r="I557" t="n">
         <v>1</v>
@@ -41278,10 +40182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:34:35</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44395.48234953704</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -41349,10 +40251,8 @@
           <t>4935288542</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:34:34</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44395.48233796296</v>
       </c>
       <c r="I559" t="n">
         <v>1</v>
@@ -41428,10 +40328,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:34:24</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44395.48222222222</v>
       </c>
       <c r="I560" t="n">
         <v>1</v>
@@ -41507,10 +40405,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:34:12</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44395.48208333334</v>
       </c>
       <c r="I561" t="n">
         <v>14</v>
@@ -41582,10 +40478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:34:10</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44395.48206018518</v>
       </c>
       <c r="I562" t="n">
         <v>0</v>
@@ -41657,10 +40551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:34:06</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44395.48201388889</v>
       </c>
       <c r="I563" t="n">
         <v>44</v>
@@ -41728,10 +40620,8 @@
           <t>4935283425</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:33:59</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44395.48193287037</v>
       </c>
       <c r="I564" t="n">
         <v>1</v>
@@ -41799,10 +40689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:33:58</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44395.4819212963</v>
       </c>
       <c r="I565" t="n">
         <v>2</v>
@@ -41870,10 +40758,8 @@
           <t>4935283100</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:33:49</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44395.48181712963</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
@@ -41949,10 +40835,8 @@
           <t>4935283104</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:33:49</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44395.48181712963</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
@@ -42028,10 +40912,8 @@
           <t>4935283050</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:33:48</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44395.48180555556</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -42099,10 +40981,8 @@
           <t>4935278143</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:33:43</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44395.48174768518</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
@@ -42166,10 +41046,8 @@
           <t>4935278156</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:33:43</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44395.48174768518</v>
       </c>
       <c r="I570" t="n">
         <v>3</v>
@@ -42245,10 +41123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:33:39</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44395.48170138889</v>
       </c>
       <c r="I571" t="n">
         <v>119</v>
@@ -42320,10 +41196,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:33:32</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44395.48162037037</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
@@ -42387,10 +41261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:33:24</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44395.48152777777</v>
       </c>
       <c r="I573" t="n">
         <v>3</v>
@@ -42454,10 +41326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:33:21</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44395.48149305556</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
@@ -42518,10 +41388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:33:20</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44395.48148148148</v>
       </c>
       <c r="I575" t="n">
         <v>28</v>
@@ -42597,10 +41465,8 @@
           <t>4935277046</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:33:12</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44395.48138888889</v>
       </c>
       <c r="I576" t="n">
         <v>1</v>
@@ -42672,10 +41538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:33:06</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44395.48131944444</v>
       </c>
       <c r="I577" t="n">
         <v>0</v>
@@ -42751,10 +41615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:33:05</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44395.48130787037</v>
       </c>
       <c r="I578" t="n">
         <v>5</v>
@@ -42830,10 +41692,8 @@
           <t>4935285074</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:33:03</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44395.48128472222</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
@@ -42897,10 +41757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:32:57</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44395.48121527778</v>
       </c>
       <c r="I580" t="n">
         <v>3</v>
@@ -42976,10 +41834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:32:54</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44395.48118055556</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
@@ -43051,10 +41907,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:32:41</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44395.48103009259</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
@@ -43126,10 +41980,8 @@
           <t>4935275732</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:32:37</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44395.4809837963</v>
       </c>
       <c r="I583" t="n">
         <v>2</v>
@@ -43205,10 +42057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:32:29</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44395.4808912037</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
@@ -43276,10 +42126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:32:18</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44395.48076388889</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -43347,10 +42195,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:32:17</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44395.48075231481</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
@@ -43422,10 +42268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:32:02</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44395.4805787037</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -43493,10 +42337,8 @@
           <t>4935264335</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:31:59</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44395.48054398148</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
@@ -43572,10 +42414,8 @@
           <t>4935269015</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:31:49</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44395.48042824074</v>
       </c>
       <c r="I589" t="n">
         <v>2</v>
@@ -43643,10 +42483,8 @@
           <t>4935263859</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:31:45</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44395.48038194444</v>
       </c>
       <c r="I590" t="n">
         <v>23</v>
@@ -43718,10 +42556,8 @@
           <t>4935268617</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:31:38</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44395.48030092593</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
@@ -43793,10 +42629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:31:23</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44395.48012731481</v>
       </c>
       <c r="I592" t="n">
         <v>126</v>
@@ -43860,10 +42694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:31:21</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44395.48010416667</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
@@ -43923,10 +42755,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:31:17</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44395.48005787037</v>
       </c>
       <c r="I594" t="n">
         <v>1</v>
@@ -43998,10 +42828,8 @@
           <t>4935271053</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:31:14</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44395.48002314815</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
@@ -44069,10 +42897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:31:07</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44395.47994212963</v>
       </c>
       <c r="I596" t="n">
         <v>1677</v>
@@ -44140,10 +42966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:31:04</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44395.47990740741</v>
       </c>
       <c r="I597" t="n">
         <v>619</v>
@@ -44212,10 +43036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:31:00</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44395.47986111111</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
@@ -44279,10 +43101,8 @@
           <t>4935266527</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:30:43</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44395.47966435185</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
@@ -44358,10 +43178,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:30:40</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44395.47962962963</v>
       </c>
       <c r="I600" t="n">
         <v>4</v>
@@ -44429,10 +43247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:30:39</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44395.47961805556</v>
       </c>
       <c r="I601" t="n">
         <v>1</v>
@@ -44506,10 +43322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:30:37</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44395.47959490741</v>
       </c>
       <c r="I602" t="n">
         <v>13</v>
@@ -44577,10 +43391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:30:28</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44395.47949074074</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -44656,10 +43468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:30:27</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44395.47947916666</v>
       </c>
       <c r="I604" t="n">
         <v>1</v>
@@ -44735,10 +43545,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:30:23</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44395.47943287037</v>
       </c>
       <c r="I605" t="n">
         <v>7</v>
@@ -44814,10 +43622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:30:21</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44395.47940972223</v>
       </c>
       <c r="I606" t="n">
         <v>1</v>
